--- a/AstralProjection/data/Level_Design.xlsx
+++ b/AstralProjection/data/Level_Design.xlsx
@@ -29,7 +29,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -210,6 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV116"/>
+  <dimension ref="A1:AV118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2718,106 +2725,56 @@
       <c r="AU57" s="12"/>
       <c r="AV57" s="13"/>
     </row>
-    <row r="58" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="7"/>
-      <c r="AE59" s="7"/>
-      <c r="AF59" s="7"/>
-      <c r="AG59" s="7"/>
-      <c r="AH59" s="7"/>
-      <c r="AI59" s="7"/>
-      <c r="AJ59" s="7"/>
-      <c r="AK59" s="7"/>
-      <c r="AL59" s="7"/>
-      <c r="AM59" s="7"/>
-      <c r="AN59" s="7"/>
-      <c r="AO59" s="7"/>
-      <c r="AP59" s="7"/>
-      <c r="AQ59" s="7"/>
-      <c r="AR59" s="7"/>
-      <c r="AS59" s="7"/>
-      <c r="AT59" s="7"/>
-      <c r="AU59" s="7"/>
-      <c r="AV59" s="8"/>
-    </row>
+    <row r="59" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="2"/>
-      <c r="AF60" s="2"/>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="2"/>
-      <c r="AI60" s="2"/>
-      <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
-      <c r="AM60" s="2"/>
-      <c r="AN60" s="2"/>
-      <c r="AO60" s="2"/>
-      <c r="AP60" s="2"/>
-      <c r="AQ60" s="2"/>
-      <c r="AR60" s="2"/>
-      <c r="AS60" s="2"/>
-      <c r="AT60" s="2"/>
-      <c r="AU60" s="2"/>
-      <c r="AV60" s="10"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+      <c r="AP60" s="7"/>
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="7"/>
+      <c r="AT60" s="7"/>
+      <c r="AU60" s="7"/>
+      <c r="AV60" s="8"/>
     </row>
     <row r="61" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
@@ -2887,11 +2844,11 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
@@ -2937,11 +2894,8 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
+      <c r="R63" s="19"/>
+      <c r="V63" s="19"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
@@ -2987,11 +2941,9 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
+      <c r="R64" s="19"/>
+      <c r="T64" s="3"/>
+      <c r="V64" s="19"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
@@ -3037,11 +2989,8 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
+      <c r="R65" s="19"/>
+      <c r="V65" s="19"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
@@ -3087,11 +3036,8 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
+      <c r="R66" s="19"/>
+      <c r="V66" s="19"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
@@ -3134,17 +3080,17 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
@@ -3184,17 +3130,17 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="19"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
@@ -3229,29 +3175,22 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="19"/>
+      <c r="AF69" s="19"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
@@ -3279,29 +3218,16 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-      <c r="AB70" s="2"/>
-      <c r="AC70" s="2"/>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="2"/>
-      <c r="AF70" s="2"/>
+      <c r="J70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="16"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="19"/>
+      <c r="AF70" s="19"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
@@ -3329,29 +3255,14 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-      <c r="AB71" s="2"/>
-      <c r="AC71" s="2"/>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="2"/>
-      <c r="AF71" s="2"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="15"/>
+      <c r="P71" s="16"/>
+      <c r="R71" s="17"/>
+      <c r="V71" s="20"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="19"/>
+      <c r="AF71" s="19"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
@@ -3379,29 +3290,16 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
-      <c r="AB72" s="2"/>
-      <c r="AC72" s="2"/>
-      <c r="AD72" s="2"/>
-      <c r="AE72" s="2"/>
-      <c r="AF72" s="2"/>
+      <c r="J72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="16"/>
+      <c r="R72" s="20"/>
+      <c r="T72" s="18"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="19"/>
+      <c r="AF72" s="19"/>
       <c r="AG72" s="2"/>
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
@@ -3429,29 +3327,18 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
-      <c r="AB73" s="2"/>
-      <c r="AC73" s="2"/>
-      <c r="AD73" s="2"/>
-      <c r="AE73" s="2"/>
-      <c r="AF73" s="2"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="16"/>
+      <c r="R73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="X73" s="16"/>
+      <c r="AD73" s="4"/>
+      <c r="AF73" s="19"/>
       <c r="AG73" s="2"/>
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
@@ -3484,24 +3371,16 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
-      <c r="AB74" s="2"/>
-      <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="2"/>
-      <c r="AF74" s="2"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="16"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="19"/>
+      <c r="AF74" s="19"/>
       <c r="AG74" s="2"/>
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
@@ -3534,24 +3413,12 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-      <c r="AB75" s="2"/>
-      <c r="AC75" s="2"/>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="2"/>
-      <c r="AF75" s="2"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="16"/>
+      <c r="T75" s="18"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="19"/>
+      <c r="AF75" s="19"/>
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
@@ -3584,24 +3451,19 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
-      <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="2"/>
-      <c r="AF76" s="2"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y76" s="19"/>
+      <c r="AF76" s="19"/>
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
@@ -3634,24 +3496,24 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
-      <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="2"/>
-      <c r="AF77" s="2"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+      <c r="AA77" s="19"/>
+      <c r="AB77" s="19"/>
+      <c r="AC77" s="19"/>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="19"/>
+      <c r="AF77" s="19"/>
       <c r="AG77" s="2"/>
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
@@ -4019,206 +3881,156 @@
       <c r="AU84" s="2"/>
       <c r="AV84" s="10"/>
     </row>
-    <row r="85" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="12"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="12"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="12"/>
-      <c r="Y85" s="12"/>
-      <c r="Z85" s="12"/>
-      <c r="AA85" s="12"/>
-      <c r="AB85" s="12"/>
-      <c r="AC85" s="12"/>
-      <c r="AD85" s="12"/>
-      <c r="AE85" s="12"/>
-      <c r="AF85" s="12"/>
-      <c r="AG85" s="12"/>
-      <c r="AH85" s="12"/>
-      <c r="AI85" s="12"/>
-      <c r="AJ85" s="12"/>
-      <c r="AK85" s="12"/>
-      <c r="AL85" s="12"/>
-      <c r="AM85" s="12"/>
-      <c r="AN85" s="12"/>
-      <c r="AO85" s="12"/>
-      <c r="AP85" s="12"/>
-      <c r="AQ85" s="12"/>
-      <c r="AR85" s="12"/>
-      <c r="AS85" s="12"/>
-      <c r="AT85" s="12"/>
-      <c r="AU85" s="12"/>
-      <c r="AV85" s="13"/>
-    </row>
-    <row r="87" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="7"/>
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="7"/>
-      <c r="AB88" s="7"/>
-      <c r="AC88" s="7"/>
-      <c r="AD88" s="7"/>
-      <c r="AE88" s="7"/>
-      <c r="AF88" s="7"/>
-      <c r="AG88" s="7"/>
-      <c r="AH88" s="7"/>
-      <c r="AI88" s="7"/>
-      <c r="AJ88" s="7"/>
-      <c r="AK88" s="7"/>
-      <c r="AL88" s="7"/>
-      <c r="AM88" s="7"/>
-      <c r="AN88" s="7"/>
-      <c r="AO88" s="7"/>
-      <c r="AP88" s="7"/>
-      <c r="AQ88" s="7"/>
-      <c r="AR88" s="7"/>
-      <c r="AS88" s="7"/>
-      <c r="AT88" s="7"/>
-      <c r="AU88" s="7"/>
-      <c r="AV88" s="8"/>
-    </row>
-    <row r="89" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
-      <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
-      <c r="AD89" s="2"/>
-      <c r="AE89" s="2"/>
-      <c r="AF89" s="2"/>
-      <c r="AG89" s="2"/>
-      <c r="AH89" s="2"/>
-      <c r="AI89" s="2"/>
-      <c r="AJ89" s="2"/>
-      <c r="AK89" s="2"/>
-      <c r="AL89" s="2"/>
-      <c r="AM89" s="2"/>
-      <c r="AN89" s="2"/>
-      <c r="AO89" s="2"/>
-      <c r="AP89" s="2"/>
-      <c r="AQ89" s="2"/>
-      <c r="AR89" s="2"/>
-      <c r="AS89" s="2"/>
-      <c r="AT89" s="2"/>
-      <c r="AU89" s="2"/>
-      <c r="AV89" s="10"/>
-    </row>
+    <row r="85" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2"/>
+      <c r="AG85" s="2"/>
+      <c r="AH85" s="2"/>
+      <c r="AI85" s="2"/>
+      <c r="AJ85" s="2"/>
+      <c r="AK85" s="2"/>
+      <c r="AL85" s="2"/>
+      <c r="AM85" s="2"/>
+      <c r="AN85" s="2"/>
+      <c r="AO85" s="2"/>
+      <c r="AP85" s="2"/>
+      <c r="AQ85" s="2"/>
+      <c r="AR85" s="2"/>
+      <c r="AS85" s="2"/>
+      <c r="AT85" s="2"/>
+      <c r="AU85" s="2"/>
+      <c r="AV85" s="10"/>
+    </row>
+    <row r="86" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+      <c r="AC86" s="12"/>
+      <c r="AD86" s="12"/>
+      <c r="AE86" s="12"/>
+      <c r="AF86" s="12"/>
+      <c r="AG86" s="12"/>
+      <c r="AH86" s="12"/>
+      <c r="AI86" s="12"/>
+      <c r="AJ86" s="12"/>
+      <c r="AK86" s="12"/>
+      <c r="AL86" s="12"/>
+      <c r="AM86" s="12"/>
+      <c r="AN86" s="12"/>
+      <c r="AO86" s="12"/>
+      <c r="AP86" s="12"/>
+      <c r="AQ86" s="12"/>
+      <c r="AR86" s="12"/>
+      <c r="AS86" s="12"/>
+      <c r="AT86" s="12"/>
+      <c r="AU86" s="12"/>
+      <c r="AV86" s="13"/>
+    </row>
+    <row r="89" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
-      <c r="AA90" s="2"/>
-      <c r="AB90" s="2"/>
-      <c r="AC90" s="2"/>
-      <c r="AD90" s="2"/>
-      <c r="AE90" s="2"/>
-      <c r="AF90" s="2"/>
-      <c r="AG90" s="2"/>
-      <c r="AH90" s="2"/>
-      <c r="AI90" s="2"/>
-      <c r="AJ90" s="2"/>
-      <c r="AK90" s="2"/>
-      <c r="AL90" s="2"/>
-      <c r="AM90" s="2"/>
-      <c r="AN90" s="2"/>
-      <c r="AO90" s="2"/>
-      <c r="AP90" s="2"/>
-      <c r="AQ90" s="2"/>
-      <c r="AR90" s="2"/>
-      <c r="AS90" s="2"/>
-      <c r="AT90" s="2"/>
-      <c r="AU90" s="2"/>
-      <c r="AV90" s="10"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="7"/>
+      <c r="AG90" s="7"/>
+      <c r="AH90" s="7"/>
+      <c r="AI90" s="7"/>
+      <c r="AJ90" s="7"/>
+      <c r="AK90" s="7"/>
+      <c r="AL90" s="7"/>
+      <c r="AM90" s="7"/>
+      <c r="AN90" s="7"/>
+      <c r="AO90" s="7"/>
+      <c r="AP90" s="7"/>
+      <c r="AQ90" s="7"/>
+      <c r="AR90" s="7"/>
+      <c r="AS90" s="7"/>
+      <c r="AT90" s="7"/>
+      <c r="AU90" s="7"/>
+      <c r="AV90" s="8"/>
     </row>
     <row r="91" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
@@ -5370,58 +5182,158 @@
       <c r="AU113" s="2"/>
       <c r="AV113" s="10"/>
     </row>
-    <row r="114" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="12"/>
-      <c r="S114" s="12"/>
-      <c r="T114" s="12"/>
-      <c r="U114" s="12"/>
-      <c r="V114" s="12"/>
-      <c r="W114" s="12"/>
-      <c r="X114" s="12"/>
-      <c r="Y114" s="12"/>
-      <c r="Z114" s="12"/>
-      <c r="AA114" s="12"/>
-      <c r="AB114" s="12"/>
-      <c r="AC114" s="12"/>
-      <c r="AD114" s="12"/>
-      <c r="AE114" s="12"/>
-      <c r="AF114" s="12"/>
-      <c r="AG114" s="12"/>
-      <c r="AH114" s="12"/>
-      <c r="AI114" s="12"/>
-      <c r="AJ114" s="12"/>
-      <c r="AK114" s="12"/>
-      <c r="AL114" s="12"/>
-      <c r="AM114" s="12"/>
-      <c r="AN114" s="12"/>
-      <c r="AO114" s="12"/>
-      <c r="AP114" s="12"/>
-      <c r="AQ114" s="12"/>
-      <c r="AR114" s="12"/>
-      <c r="AS114" s="12"/>
-      <c r="AT114" s="12"/>
-      <c r="AU114" s="12"/>
-      <c r="AV114" s="13"/>
-    </row>
-    <row r="116" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="5"/>
+    <row r="114" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
+      <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="2"/>
+      <c r="AG114" s="2"/>
+      <c r="AH114" s="2"/>
+      <c r="AI114" s="2"/>
+      <c r="AJ114" s="2"/>
+      <c r="AK114" s="2"/>
+      <c r="AL114" s="2"/>
+      <c r="AM114" s="2"/>
+      <c r="AN114" s="2"/>
+      <c r="AO114" s="2"/>
+      <c r="AP114" s="2"/>
+      <c r="AQ114" s="2"/>
+      <c r="AR114" s="2"/>
+      <c r="AS114" s="2"/>
+      <c r="AT114" s="2"/>
+      <c r="AU114" s="2"/>
+      <c r="AV114" s="10"/>
+    </row>
+    <row r="115" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="2"/>
+      <c r="AG115" s="2"/>
+      <c r="AH115" s="2"/>
+      <c r="AI115" s="2"/>
+      <c r="AJ115" s="2"/>
+      <c r="AK115" s="2"/>
+      <c r="AL115" s="2"/>
+      <c r="AM115" s="2"/>
+      <c r="AN115" s="2"/>
+      <c r="AO115" s="2"/>
+      <c r="AP115" s="2"/>
+      <c r="AQ115" s="2"/>
+      <c r="AR115" s="2"/>
+      <c r="AS115" s="2"/>
+      <c r="AT115" s="2"/>
+      <c r="AU115" s="2"/>
+      <c r="AV115" s="10"/>
+    </row>
+    <row r="116" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="12"/>
+      <c r="AB116" s="12"/>
+      <c r="AC116" s="12"/>
+      <c r="AD116" s="12"/>
+      <c r="AE116" s="12"/>
+      <c r="AF116" s="12"/>
+      <c r="AG116" s="12"/>
+      <c r="AH116" s="12"/>
+      <c r="AI116" s="12"/>
+      <c r="AJ116" s="12"/>
+      <c r="AK116" s="12"/>
+      <c r="AL116" s="12"/>
+      <c r="AM116" s="12"/>
+      <c r="AN116" s="12"/>
+      <c r="AO116" s="12"/>
+      <c r="AP116" s="12"/>
+      <c r="AQ116" s="12"/>
+      <c r="AR116" s="12"/>
+      <c r="AS116" s="12"/>
+      <c r="AT116" s="12"/>
+      <c r="AU116" s="12"/>
+      <c r="AV116" s="13"/>
+    </row>
+    <row r="118" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AstralProjection/data/Level_Design.xlsx
+++ b/AstralProjection/data/Level_Design.xlsx
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T64" sqref="T64"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X89" sqref="X89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
